--- a/Cleaned_Bangladesh_Food_Diary.xlsx
+++ b/Cleaned_Bangladesh_Food_Diary.xlsx
@@ -2256,7 +2256,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Potato, Diamond, boiled* (without salt) {0.49}; Onion, raw {0.49}; Chilli, red, dry {0.1}; Prawn, Giant tiger prawn, raw {1.05}; Onion, raw {0.49}; Garlic, raw {0.49}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Potato, Diamond, boiled* (without salt) {0.2}; Onion, raw {0.2}; Chilli, red, dry {0.1}; Prawn, Giant tiger prawn, raw {0.42}; Onion, raw {0.2}; Garlic, raw {0.2}</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">

--- a/Cleaned_Bangladesh_Food_Diary.xlsx
+++ b/Cleaned_Bangladesh_Food_Diary.xlsx
@@ -782,7 +782,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Puri with onion (5cm)</t>
+          <t>Puri with onion (5cm), ioerjffrej, rgtioerjr, 4ioek</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Ruti* {1.0}; Onion, raw {1.5}</t>
+          <t>Ruti* {1.0}; Onion, raw {1.5}; UNKNOWN; UNKNOWN; UNKNOWN</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -962,13 +962,13 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Rice (2 Plate), Fish (Pangash), Carrot, Brinjal</t>
+          <t>Rice (2 Plate), Fish (Pangash), erfijejife, Carrot, Brinjal</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {6.0}; Pangas, without bones, raw {0.53}; Pangas, without bones, raw {0.53}; Carrot, boiled* (without salt) {0.97}; Brinjal, purple, long, boiled* (without salt) {0.97}</t>
+          <t>Rice, BR-28, boiled* (without salt) {6.0}; Pangas, without bones, raw {0.53}; Pangas, without bones, raw {0.53}; UNKNOWN; Carrot, boiled* (without salt) {0.97}; Brinjal, purple, long, boiled* (without salt) {0.97}</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2812,10 +2812,22 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">doom fry </t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Chicken leg, without skin, raw {1.05}; Potato, Diamond, boiled* (without salt) {0.65}; Gourd, pointed, boiled* (without salt) {0.65}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.65}; UNKNOWN</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Chicken leg, without skin, raw</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>

--- a/Cleaned_Bangladesh_Food_Diary.xlsx
+++ b/Cleaned_Bangladesh_Food_Diary.xlsx
@@ -695,12 +695,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {6.0}; Pangas, without bones, raw {1.0}</t>
+          <t>Rice, BR-28, boiled* (without salt) {6.0}; Hilsha, without bones, raw {1.0}</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Pangas, without bones, raw</t>
+          <t>Hilsha, without bones, raw</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.09}; Pangas, without bones, raw {0.09}; Potato, Diamond, boiled* (without salt) {0.16}; Tomato, red, ripe, boiled* (without salt) {0.16}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.09}; Pangas, without bones, raw {0.09}; Potato, Diamond, boiled* (without salt) {0.16}; Tomato, red, ripe, boiled* (without salt) {0.16}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>Pangas, without bones, raw; Pangas, without bones, raw</t>
+          <t>Hilsha, without bones, raw; Pangas, without bones, raw</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -928,12 +928,12 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.17}; Tilapia, without bones, raw {0.17}; Potato, Diamond, boiled* (without salt) {0.22}; Carrot, boiled* (without salt) {0.22}; Tomato, red, ripe, boiled* (without salt) {0.22}; Chilli, red, dry {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.35}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.22}; Carrot, boiled* (without salt) {0.22}; Tomato, red, ripe, boiled* (without salt) {0.22}; Chilli, red, dry {0.1}</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>Pangas, without bones, raw; Tilapia, without bones, raw</t>
+          <t>Hilsha, without bones, raw</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {6.0}; Pangas, without bones, raw {0.53}; Pangas, without bones, raw {0.53}; UNKNOWN; Carrot, boiled* (without salt) {0.97}; Brinjal, purple, long, boiled* (without salt) {0.97}</t>
+          <t>Rice, BR-28, boiled* (without salt) {6.0}; Hilsha, without bones, raw {0.53}; Pangas, without bones, raw {0.53}; UNKNOWN; Carrot, boiled* (without salt) {0.97}; Brinjal, purple, long, boiled* (without salt) {0.97}</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Pangas, without bones, raw; Pangas, without bones, raw</t>
+          <t>Hilsha, without bones, raw; Pangas, without bones, raw</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.09}; Pangas, without bones, raw {0.09}; Potato, Diamond, boiled* (without salt) {0.16}; Tomato, red, ripe, boiled* (without salt) {0.16}; Chilli, red, dry {0.1}; UNKNOWN</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.09}; Pangas, without bones, raw {0.09}; Potato, Diamond, boiled* (without salt) {0.16}; Tomato, red, ripe, boiled* (without salt) {0.16}; Chilli, red, dry {0.1}; UNKNOWN</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>Pangas, without bones, raw; Pangas, without bones, raw</t>
+          <t>Hilsha, without bones, raw; Pangas, without bones, raw</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1327,12 +1327,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.7}; Turmeric, dried {0.1}; Soybean oil {0.15}; Potato, Diamond, boiled* (without salt) {0.43}; Cumin seeds {0.1}; Gourd, bitter, boiled* (without salt) {0.43}; Green gram, split, boiled* (without salt) {0.43}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.7}; Turmeric, dried {0.1}; Soybean oil {0.15}; Potato, Diamond, boiled* (without salt) {0.43}; Cumin seeds {0.1}; Gourd, bitter, boiled* (without salt) {0.43}; Green gram, split, boiled* (without salt) {0.43}</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Pangas, without bones, raw</t>
+          <t>Hilsha, without bones, raw</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1362,12 +1362,12 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {1.0}; Potato, Diamond, boiled* (without salt) {0.67}; Colocasia/Taro, boiled* (without salt) {0.67}; Chilli, green, with seeds, raw {0.67}; Coriander seed, dry {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {1.0}; Potato, Diamond, boiled* (without salt) {0.67}; Colocasia/Taro, boiled* (without salt) {0.67}; Chilli, green, with seeds, raw {0.67}; Coriander seed, dry {0.1}</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Pangas, without bones, raw</t>
+          <t>Hilsha, without bones, raw</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1545,12 +1545,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {6.0}; Pangas, without bones, raw {0.53}; Potato, Diamond, boiled* (without salt) {0.49}; Chilli, green, with seeds, raw {0.49}; Coriander seed, dry {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {6.0}; Hilsha, without bones, raw {0.53}; Potato, Diamond, boiled* (without salt) {0.49}; Chilli, green, with seeds, raw {0.49}; Coriander seed, dry {0.1}</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>Pangas, without bones, raw</t>
+          <t>Hilsha, without bones, raw</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.17}; Hilsha, without bones, raw {0.17}; Colocasia/Taro, boiled* (without salt) {0.65}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.17}; Hilsha, without bones, raw {0.17}; Colocasia/Taro, boiled* (without salt) {0.65}</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>Pangas, without bones, raw; Hilsha, without bones, raw</t>
+          <t>Hilsha, without bones, raw; Hilsha, without bones, raw</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {0.5}; Potato, Diamond, boiled* (without salt) {0.25}; Carrot, boiled* (without salt) {0.25}; Cauliflower, boiled* (without salt) {0.25}; Cabbage, boiled* (without salt) {0.25}; Bean, seeds and pods, raw {0.25}; Brinjal, purple, long, boiled* (without salt) {0.25}; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}</t>
+          <t>Bread, bun/roll {0.5}; Potato, Diamond, boiled* (without salt) {0.3}; Carrot, boiled* (without salt) {0.3}; Cauliflower, boiled* (without salt) {0.3}; Cabbage, boiled* (without salt) {0.3}; Bean, seeds and pods, raw {0.3}; UNKNOWN; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr"/>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Wheat, flour, white {0.12}; Sugar, white {0.12}; Milk, cow, whole fat (pasteurized, UTH) {0.12}; Sugar, white {0.12}</t>
+          <t>Wheat, flour, white {0.1}; Sugar, white {0.17}; Milk, cow, whole fat (pasteurized, UTH) {0.17}; Sugar, white {0.17}</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
@@ -1850,12 +1850,12 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.09}; Hilsha, without bones, raw {0.09}; Gourd, pointed, boiled* (without salt) {0.11}; Onion, raw {0.11}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.11}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.09}; Hilsha, without bones, raw {0.09}; Gourd, pointed, boiled* (without salt) {0.11}; Onion, raw {0.11}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.11}</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Pangas, without bones, raw; Hilsha, without bones, raw</t>
+          <t>Hilsha, without bones, raw; Hilsha, without bones, raw</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1920,12 +1920,12 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.09}; Hilsha, without bones, raw {0.09}; Chicken leg, without skin, raw {1.0}; Green gram, split, boiled* (without salt) {0.33}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.09}; Hilsha, without bones, raw {0.09}; Chicken leg, without skin, raw {1.0}; Green gram, split, boiled* (without salt) {0.33}</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>Pangas, without bones, raw; Hilsha, without bones, raw; Chicken leg, without skin, raw</t>
+          <t>Hilsha, without bones, raw; Hilsha, without bones, raw; Chicken leg, without skin, raw</t>
         </is>
       </c>
     </row>
@@ -1995,12 +1995,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {4.5}; Pangas, without bones, raw {0.09}; Rohu, river, raw {0.09}; Green gram, split, boiled* (without salt) {0.16}; Gourd, bitter, boiled* (without salt) {0.16}</t>
+          <t>Rice, BR-28, boiled* (without salt) {4.5}; Hilsha, without bones, raw {0.09}; Rohu, river, raw {0.09}; Green gram, split, boiled* (without salt) {0.16}; Gourd, bitter, boiled* (without salt) {0.16}</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Pangas, without bones, raw; Rohu, river, raw</t>
+          <t>Hilsha, without bones, raw; Rohu, river, raw</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2155,12 +2155,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.09}; Rohu, river, raw {0.09}; Green gram, split, boiled* (without salt) {0.33}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.09}; Rohu, river, raw {0.09}; Green gram, split, boiled* (without salt) {0.33}</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Pangas, without bones, raw; Rohu, river, raw</t>
+          <t>Hilsha, without bones, raw; Rohu, river, raw</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Potato, Diamond, boiled* (without salt) {0.2}; Onion, raw {0.2}; Chilli, red, dry {0.1}; Prawn, Giant tiger prawn, raw {0.42}; Onion, raw {0.2}; Garlic, raw {0.2}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Potato Mash* {0.26}; Prawn, Giant tiger prawn, raw {0.42}; Onion, raw {0.26}; Garlic, raw {0.26}</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pumpkin leaves, raw {0.33}; Pangas, without bones, raw {0.7}; Mango, Fazli, orange flesh, ripe, raw {0.33}; Soybean oil {0.15}; Onion, raw {0.33}; Chilli, green, with seeds, raw {0.33}; Coriander seed, dry {0.1}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Pangas, without bones, raw {0.7}; Mango, Fazli, orange flesh, ripe, raw {0.43}; Soybean oil {0.15}; Onion, raw {0.43}; Chilli, green, with seeds, raw {0.43}; Coriander seed, dry {0.1}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -2820,7 +2820,7 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Chicken leg, without skin, raw {1.05}; Potato, Diamond, boiled* (without salt) {0.65}; Gourd, pointed, boiled* (without salt) {0.65}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.65}; UNKNOWN</t>
+          <t>Chicken leg, without skin, raw {1.05}; Potato, Diamond, boiled* (without salt) {0.97}; Gourd, pointed, boiled* (without salt) {0.97}; Soybean oil {0.15}; UNKNOWN; UNKNOWN</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">

--- a/Cleaned_Bangladesh_Food_Diary.xlsx
+++ b/Cleaned_Bangladesh_Food_Diary.xlsx
@@ -660,7 +660,7 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Small fish fry* {2.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {1.95}; UNKNOWN; Small fish fry* {1.05}; UNKNOWN</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {6.0}; Hilsha, without bones, raw {1.0}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.65}; UNKNOWN; Hilsha, without bones, raw {0.35}</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {0.35}; Potato, Diamond, boiled* (without salt) {0.22}; Ginger root, raw {0.1}; Onion, raw {0.22}; Chilli, green, with seeds, raw {0.22}; Coriander seed, dry {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.16}; UNKNOWN; Chicken leg, without skin, raw {0.35}; Potato, Diamond, boiled* (without salt) {0.16}; Ginger root, raw {0.1}; Onion, raw {0.16}; Chilli, green, with seeds, raw {0.16}; Coriander seed, dry {0.1}</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Beef, meat, lean, boneless, raw {0.7}; Potato, Diamond, boiled* (without salt) {0.33}; Ginger root, raw {0.1}; Onion, raw {0.33}; Garlic, raw {0.33}; Chilli, green, with seeds, raw {0.33}; Coriander seed, dry {0.1}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.26}; UNKNOWN; Beef, meat, lean, boneless, raw {0.7}; Potato, Diamond, boiled* (without salt) {0.26}; Ginger root, raw {0.1}; Onion, raw {0.26}; Garlic, raw {0.26}; Chilli, green, with seeds, raw {0.26}; Coriander seed, dry {0.1}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.09}; Pangas, without bones, raw {0.09}; Potato, Diamond, boiled* (without salt) {0.16}; Tomato, red, ripe, boiled* (without salt) {0.16}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.11}; UNKNOWN; Hilsha, without bones, raw {0.09}; Pangas, without bones, raw {0.09}; Potato, Diamond, boiled* (without salt) {0.11}; Tomato, red, ripe, boiled* (without salt) {0.11}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -928,12 +928,12 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.35}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.22}; Carrot, boiled* (without salt) {0.22}; Tomato, red, ripe, boiled* (without salt) {0.22}; Chilli, red, dry {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.16}; UNKNOWN; Hilsha, without bones, raw {0.17}; Tilapia, without bones, raw {0.17}; Potato, Diamond, boiled* (without salt) {0.16}; Carrot, boiled* (without salt) {0.16}; Tomato, red, ripe, boiled* (without salt) {0.16}; Chilli, red, dry {0.1}</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>Hilsha, without bones, raw</t>
+          <t>Hilsha, without bones, raw; Tilapia, without bones, raw</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {6.0}; Hilsha, without bones, raw {0.53}; Pangas, without bones, raw {0.53}; UNKNOWN; Carrot, boiled* (without salt) {0.97}; Brinjal, purple, long, boiled* (without salt) {0.97}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.65}; UNKNOWN; Hilsha, without bones, raw {0.53}; Pangas, without bones, raw {0.53}; UNKNOWN; Carrot, boiled* (without salt) {0.65}; Brinjal, purple, long, boiled* (without salt) {0.65}</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {0.35}; Potato, Diamond, boiled* (without salt) {0.22}; Ginger root, raw {0.1}; Garlic, raw {0.22}; Chilli, green, with seeds, raw {0.22}; Coriander seed, dry {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.16}; UNKNOWN; Chicken leg, without skin, raw {0.35}; Potato, Diamond, boiled* (without salt) {0.16}; Ginger root, raw {0.1}; Garlic, raw {0.16}; Chilli, green, with seeds, raw {0.16}; Coriander seed, dry {0.1}</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.09}; Pangas, without bones, raw {0.09}; Potato, Diamond, boiled* (without salt) {0.16}; Tomato, red, ripe, boiled* (without salt) {0.16}; Chilli, red, dry {0.1}; UNKNOWN</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.11}; UNKNOWN; Hilsha, without bones, raw {0.09}; Pangas, without bones, raw {0.09}; Potato, Diamond, boiled* (without salt) {0.11}; Tomato, red, ripe, boiled* (without salt) {0.11}; Chilli, red, dry {0.1}; UNKNOWN</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Beef, meat, lean, boneless, raw {0.53}; Potato, Diamond, boiled* (without salt) {0.2}; Carrot, boiled* (without salt) {0.2}; Ginger root, raw {0.1}; Onion, raw {0.2}; Garlic, raw {0.2}; Chilli, green, with seeds, raw {0.2}; Coriander seed, dry {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.16}; UNKNOWN; Beef, meat, lean, boneless, raw {0.53}; Potato, Diamond, boiled* (without salt) {0.16}; Carrot, boiled* (without salt) {0.16}; Ginger root, raw {0.1}; Onion, raw {0.16}; Garlic, raw {0.16}; Chilli, green, with seeds, raw {0.16}; Coriander seed, dry {0.1}</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {1.0}; Water, drinking {2.5}</t>
+          <t>Biscuit, sweet* {0.5}; Water, drinking {0.5}; UNKNOWN</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {0.5}; Water, drinking {2.5}</t>
+          <t>Biscuit, sweet* {0.25}; Water, drinking {0.25}; UNKNOWN</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {0.5}; Potato, Diamond, boiled* (without salt) {0.67}; Carrot, boiled* (without salt) {0.67}; Green gram, split, boiled* (without salt) {0.67}</t>
+          <t>Bread, bun/roll {0.5}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.5}; Carrot, boiled* (without salt) {0.5}; Green gram, split, boiled* (without salt) {0.5}</t>
         </is>
       </c>
       <c r="X5" t="inlineStr"/>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {1.0}; Green gram, split, boiled* (without salt) {1.0}</t>
+          <t>Bread, bun/roll {0.67}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.67}; Green gram, split, boiled* (without salt) {0.67}</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr"/>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {0.5}; Potato, Diamond, boiled* (without salt) {0.67}; Green gram, split, boiled* (without salt) {0.67}; Gourd, pointed, boiled* (without salt) {0.67}</t>
+          <t>Bread, bun/roll {0.5}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.5}; Green gram, split, boiled* (without salt) {0.5}; Gourd, pointed, boiled* (without salt) {0.5}</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {1.5}; Egg, chicken, farmed, boiled* (without salt) {0.17}; Potato, Diamond, boiled* (without salt) {0.16}; Onion, raw {0.16}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.11}; UNKNOWN; Egg, chicken, farmed, boiled* (without salt) {0.17}; Potato, Diamond, boiled* (without salt) {0.11}; Onion, raw {0.11}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.7}; Turmeric, dried {0.1}; Soybean oil {0.15}; Potato, Diamond, boiled* (without salt) {0.43}; Cumin seeds {0.1}; Gourd, bitter, boiled* (without salt) {0.43}; Green gram, split, boiled* (without salt) {0.43}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.33}; UNKNOWN; Hilsha, without bones, raw {0.7}; Turmeric, dried {0.1}; Soybean oil {0.15}; Potato, Diamond, boiled* (without salt) {0.33}; Cumin seeds {0.1}; Gourd, bitter, boiled* (without salt) {0.33}; Green gram, split, boiled* (without salt) {0.33}</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {1.0}; Potato, Diamond, boiled* (without salt) {0.67}; Colocasia/Taro, boiled* (without salt) {0.67}; Chilli, green, with seeds, raw {0.67}; Coriander seed, dry {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.33}; UNKNOWN; Hilsha, without bones, raw {0.7}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.33}; Colocasia/Taro, boiled* (without salt) {0.33}; Chilli, green, with seeds, raw {0.33}; Coriander seed, dry {0.1}</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Beef, meat, lean, boneless, raw {0.53}; Potato, Diamond, boiled* (without salt) {0.24}; Carrot, boiled* (without salt) {0.24}; Chilli, green, with seeds, raw {0.24}; Coriander seed, dry {0.1}; Green gram, split, boiled* (without salt) {0.24}; UNKNOWN</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.2}; UNKNOWN; Beef, meat, lean, boneless, raw {0.53}; Potato, Diamond, boiled* (without salt) {0.2}; Carrot, boiled* (without salt) {0.2}; Chilli, green, with seeds, raw {0.2}; Coriander seed, dry {0.1}; Green gram, split, boiled* (without salt) {0.2}; UNKNOWN</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {6.0}; Milk, cow, whole fat (pasteurized, UTH) {2.0}</t>
+          <t>Rice, BR-28, boiled* (without salt) {1.0}; UNKNOWN; Milk, cow, whole fat (pasteurized, UTH) {1.0}</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr"/>
@@ -1468,7 +1468,7 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {1.05}; Onion, raw {1.95}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.97}; UNKNOWN; Egg, chicken, farmed, boiled* (without salt) {1.05}; Onion, raw {0.97}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {6.0}; Beef, meat, lean, boneless, raw {0.53}; Potato, Diamond, boiled* (without salt) {0.49}; Cumin seeds {0.1}; Chilli, green, with seeds, raw {0.49}; Coriander seed, dry {0.1}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.33}; UNKNOWN; Beef, meat, lean, boneless, raw {0.53}; Potato, Diamond, boiled* (without salt) {0.33}; Cumin seeds {0.1}; Chilli, green, with seeds, raw {0.33}; Coriander seed, dry {0.1}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {6.0}; Hilsha, without bones, raw {0.53}; Potato, Diamond, boiled* (without salt) {0.49}; Chilli, green, with seeds, raw {0.49}; Coriander seed, dry {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.33}; UNKNOWN; Hilsha, without bones, raw {0.53}; Potato, Diamond, boiled* (without salt) {0.33}; Chilli, green, with seeds, raw {0.33}; Coriander seed, dry {0.1}</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.17}; Hilsha, without bones, raw {0.17}; Colocasia/Taro, boiled* (without salt) {0.65}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.33}; UNKNOWN; Hilsha, without bones, raw {0.17}; Hilsha, without bones, raw {0.17}; Colocasia/Taro, boiled* (without salt) {0.33}</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {0.5}; Potato, Diamond, boiled* (without salt) {1.0}; Papaya, unripe, boiled* (without salt) {1.0}; Green gram, split, boiled* (without salt) {1.0}; Soybean oil {0.15}; Garlic, raw {1.0}</t>
+          <t>Bread, bun/roll {0.8}; UNKNOWN; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.8}; Papaya, unripe, boiled* (without salt) {0.8}; Green gram, split, boiled* (without salt) {0.8}; Soybean oil {0.15}; Garlic, raw {0.8}</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {0.5}; Potato, Diamond, boiled* (without salt) {1.33}; Onion, raw {1.33}; Chilli, red, dry {0.1}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {1.33}</t>
+          <t>Bread, bun/roll {1.0}; UNKNOWN; Potato, Diamond, boiled* (without salt) {1.0}; Onion, raw {1.0}; Chilli, red, dry {0.1}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {1.0}</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -1686,7 +1686,7 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; Sugar, white {3.0}</t>
+          <t>Bread, bun/roll {1.5}; UNKNOWN; Sugar, white {1.5}</t>
         </is>
       </c>
       <c r="X8" t="inlineStr"/>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {0.5}; Potato, Diamond, boiled* (without salt) {0.3}; Carrot, boiled* (without salt) {0.3}; Cauliflower, boiled* (without salt) {0.3}; Cabbage, boiled* (without salt) {0.3}; Bean, seeds and pods, raw {0.3}; UNKNOWN; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}</t>
+          <t>Bread, bun/roll {0.21}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.21}; Carrot, boiled* (without salt) {0.21}; Cauliflower, boiled* (without salt) {0.21}; Cabbage, boiled* (without salt) {0.21}; Bean, seeds and pods, raw {0.21}; Brinjal, purple, long, boiled* (without salt) {0.21}; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr"/>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {0.38}; Green gram, split, boiled* (without salt) {0.38}; Papaya, unripe, boiled* (without salt) {0.38}; Carrot, boiled* (without salt) {0.38}; Soybean oil {0.15}</t>
+          <t>Bread, bun/roll {0.3}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.3}; Green gram, split, boiled* (without salt) {0.3}; Papaya, unripe, boiled* (without salt) {0.3}; Carrot, boiled* (without salt) {0.3}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr"/>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {0.75}; Orange juice, raw (unsweetened) {2.5}</t>
+          <t>Biscuit, sweet* {0.5}; UNKNOWN; Orange juice, raw (unsweetened) {0.5}; UNKNOWN</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.09}; Hilsha, without bones, raw {0.09}; Gourd, pointed, boiled* (without salt) {0.11}; Onion, raw {0.11}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.11}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.08}; UNKNOWN; Hilsha, without bones, raw {0.09}; Hilsha, without bones, raw {0.09}; Gourd, pointed, boiled* (without salt) {0.08}; Onion, raw {0.08}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.08}</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {0.5}; Green gram, split, boiled* (without salt) {0.6}; Tomato, red, ripe, boiled* (without salt) {0.6}; Cucumber, peeled, raw {0.6}; Onion, raw {0.6}; Radish, boiled* (without salt) {0.6}; Ginger root, raw {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.33}; UNKNOWN; Chicken leg, without skin, raw {1.05}; UNKNOWN; Green gram, split, boiled* (without salt) {0.33}; Tomato, red, ripe, boiled* (without salt) {0.33}; Cucumber, peeled, raw {0.33}; Onion, raw {0.33}; Radish, boiled* (without salt) {0.33}; Ginger root, raw {0.1}</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.09}; Hilsha, without bones, raw {0.09}; Chicken leg, without skin, raw {1.0}; Green gram, split, boiled* (without salt) {0.33}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.16}; UNKNOWN; Hilsha, without bones, raw {0.06}; Hilsha, without bones, raw {0.06}; Chicken leg, without skin, raw {0.06}; UNKNOWN; Green gram, split, boiled* (without salt) {0.16}</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {6.0}; Egg, chicken, farmed, boiled* (without salt) {0.17}; Onion, raw {0.16}; Garlic, raw {0.16}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.11}; UNKNOWN; Egg, chicken, farmed, boiled* (without salt) {0.17}; Onion, raw {0.11}; Garlic, raw {0.11}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {4.5}; Hilsha, without bones, raw {0.09}; Rohu, river, raw {0.09}; Green gram, split, boiled* (without salt) {0.16}; Gourd, bitter, boiled* (without salt) {0.16}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.11}; UNKNOWN; Hilsha, without bones, raw {0.09}; Rohu, river, raw {0.09}; Green gram, split, boiled* (without salt) {0.11}; Gourd, bitter, boiled* (without salt) {0.11}</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -2026,7 +2026,7 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {0.9}</t>
+          <t>Biscuit, sweet* {3.0}; UNKNOWN</t>
         </is>
       </c>
       <c r="X10" t="inlineStr"/>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.09}; Rohu, river, raw {0.09}; Green gram, split, boiled* (without salt) {0.33}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.16}; UNKNOWN; Hilsha, without bones, raw {0.09}; Rohu, river, raw {0.09}; Green gram, split, boiled* (without salt) {0.16}</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2186,7 +2186,7 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Tomato, red, ripe, boiled* (without salt) {1.5}; Goby, Tank goby, raw {0.5}; Green gram, split, boiled* (without salt) {1.5}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.65}; UNKNOWN; Tomato, red, ripe, boiled* (without salt) {0.65}; Goby, Tank goby, raw {1.05}; UNKNOWN; Green gram, split, boiled* (without salt) {0.65}</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {1.5}; Green gram, split, boiled* (without salt) {0.4}; Tomato, red, ripe, boiled* (without salt) {0.4}; Cucumber, peeled, raw {0.4}; Onion, raw {0.4}; Radish, boiled* (without salt) {0.4}; Ginger root, raw {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.22}; UNKNOWN; Chicken leg, without skin, raw {0.7}; UNKNOWN; Green gram, split, boiled* (without salt) {0.22}; Tomato, red, ripe, boiled* (without salt) {0.22}; Cucumber, peeled, raw {0.22}; Onion, raw {0.22}; Radish, boiled* (without salt) {0.22}; Ginger root, raw {0.1}</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Potato Mash* {0.26}; Prawn, Giant tiger prawn, raw {0.42}; Onion, raw {0.26}; Garlic, raw {0.26}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.16}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.16}; Onion, raw {0.16}; Chilli, red, dry {0.1}; Prawn, Giant tiger prawn, raw {0.42}; Onion, raw {0.16}; Garlic, raw {0.16}</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {1.0}; Garlic, raw {0.43}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.43}; Gourd, ash, raw {0.43}; Prawn, Giant tiger prawn, raw {0.7}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.33}; UNKNOWN; Egg, chicken, farmed, boiled* (without salt) {0.35}; UNKNOWN; Garlic, raw {0.33}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.33}; Gourd, ash, raw {0.33}; Prawn, Giant tiger prawn, raw {0.35}</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {2.0}; Rice, puffed, salted {1.0}; Onion, raw {1.0}; Soybean oil {0.15}; Chilli, red, dry {0.1}; Lemon, Kagoji, raw {0.1}</t>
+          <t>Biscuit, sweet* {0.67}; UNKNOWN; Rice, puffed, salted {0.67}; Onion, raw {0.67}; Soybean oil {0.15}; Chilli, red, dry {0.1}; Lemon, Kagoji, raw {0.1}</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>UNKNOWN; Potato, Diamond, boiled* (without salt) {0.4}; Onion, raw {0.4}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; Lotus seeds, dried {0.4}; Spinach, boiled* (without salt) {0.4}; Soybean oil {0.15}; Chilli, green, with seeds, raw {0.4}; Coriander seed, dry {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.33}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.33}; Onion, raw {0.33}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; Lotus seeds, dried {0.33}; Spinach, boiled* (without salt) {0.33}; Soybean oil {0.15}; Chilli, green, with seeds, raw {0.33}; Coriander seed, dry {0.1}</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {2.0}; Potato, Diamond, boiled* (without salt) {1.0}; Colocasia/Taro, boiled* (without salt) {1.0}; Salt {0.1}; Soybean oil {0.15}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.43}; UNKNOWN; Pangas, without bones, raw {0.7}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.43}; Colocasia/Taro, boiled* (without salt) {0.43}; Salt {0.1}; Soybean oil {0.15}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Pangas, without bones, raw {0.7}; Mango, Fazli, orange flesh, ripe, raw {0.43}; Soybean oil {0.15}; Onion, raw {0.43}; Chilli, green, with seeds, raw {0.43}; Coriander seed, dry {0.1}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.26}; UNKNOWN; Pumpkin leaves, raw {0.26}; Pangas, without bones, raw {0.7}; Mango, Fazli, orange flesh, ripe, raw {0.26}; Soybean oil {0.15}; Onion, raw {0.26}; Chilli, green, with seeds, raw {0.26}; Coriander seed, dry {0.1}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -2641,7 +2641,7 @@
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {1.05}; Papaya, unripe, boiled* (without salt) {1.95}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.97}; UNKNOWN; Pangas, without bones, raw {1.05}; Papaya, unripe, boiled* (without salt) {0.97}</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>UNKNOWN; Potato, Diamond, boiled* (without salt) {0.4}; Onion, raw {0.4}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; Lotus seeds, dried {0.4}; Spinach, boiled* (without salt) {0.4}; Soybean oil {0.15}; Chilli, green, with seeds, raw {0.4}; Coriander seed, dry {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.33}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.33}; Onion, raw {0.33}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; Lotus seeds, dried {0.33}; Spinach, boiled* (without salt) {0.33}; Soybean oil {0.15}; Chilli, green, with seeds, raw {0.33}; Coriander seed, dry {0.1}</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {2.0}; Potato, Diamond, boiled* (without salt) {1.0}; Colocasia/Taro, boiled* (without salt) {1.0}; Salt {0.1}; Soybean oil {0.15}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.43}; UNKNOWN; Pangas, without bones, raw {0.7}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.43}; Colocasia/Taro, boiled* (without salt) {0.43}; Salt {0.1}; Soybean oil {0.15}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2785,7 +2785,7 @@
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {3.0}</t>
+          <t>Rice, BR-28, boiled* (without salt) {1.95}; UNKNOWN; Pangas, without bones, raw {1.05}</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
@@ -2820,7 +2820,7 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Chicken leg, without skin, raw {1.05}; Potato, Diamond, boiled* (without salt) {0.97}; Gourd, pointed, boiled* (without salt) {0.97}; Soybean oil {0.15}; UNKNOWN; UNKNOWN</t>
+          <t>Chicken leg, without skin, raw {1.05}; Potato, Diamond, boiled* (without salt) {0.65}; Gourd, pointed, boiled* (without salt) {0.65}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.65}; UNKNOWN</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.7}; Mango, Fazli, orange flesh, ripe, raw {0.43}; Soybean oil {0.15}; Onion, raw {0.43}; Chilli, green, with seeds, raw {0.43}; Coriander seed, dry {0.1}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {0.33}; UNKNOWN; Pangas, without bones, raw {0.7}; Mango, Fazli, orange flesh, ripe, raw {0.33}; Soybean oil {0.15}; Onion, raw {0.33}; Chilli, green, with seeds, raw {0.33}; Coriander seed, dry {0.1}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">

--- a/Cleaned_Bangladesh_Food_Diary.xlsx
+++ b/Cleaned_Bangladesh_Food_Diary.xlsx
@@ -660,7 +660,7 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {1.95}; UNKNOWN; Small fish fry* {1.05}; UNKNOWN</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Small fish fry* {2.1}</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.65}; UNKNOWN; Hilsha, without bones, raw {0.35}</t>
+          <t>Rice, BR-28, boiled* (without salt) {6.0}; Hilsha, without bones, raw {1.0}</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.16}; UNKNOWN; Chicken leg, without skin, raw {0.35}; Potato, Diamond, boiled* (without salt) {0.16}; Ginger root, raw {0.1}; Onion, raw {0.16}; Chilli, green, with seeds, raw {0.16}; Coriander seed, dry {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {0.35}; Potato, Diamond, boiled* (without salt) {0.22}; Ginger root, raw {0.1}; Onion, raw {0.22}; Chilli, green, with seeds, raw {0.22}; Coriander seed, dry {0.1}</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.26}; UNKNOWN; Beef, meat, lean, boneless, raw {0.7}; Potato, Diamond, boiled* (without salt) {0.26}; Ginger root, raw {0.1}; Onion, raw {0.26}; Garlic, raw {0.26}; Chilli, green, with seeds, raw {0.26}; Coriander seed, dry {0.1}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Beef, meat, lean, boneless, raw {0.7}; Potato, Diamond, boiled* (without salt) {0.33}; Ginger root, raw {0.1}; Onion, raw {0.33}; Garlic, raw {0.33}; Chilli, green, with seeds, raw {0.33}; Coriander seed, dry {0.1}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.11}; UNKNOWN; Hilsha, without bones, raw {0.09}; Pangas, without bones, raw {0.09}; Potato, Diamond, boiled* (without salt) {0.11}; Tomato, red, ripe, boiled* (without salt) {0.11}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.09}; Pangas, without bones, raw {0.09}; Potato, Diamond, boiled* (without salt) {0.16}; Tomato, red, ripe, boiled* (without salt) {0.16}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.16}; UNKNOWN; Hilsha, without bones, raw {0.17}; Tilapia, without bones, raw {0.17}; Potato, Diamond, boiled* (without salt) {0.16}; Carrot, boiled* (without salt) {0.16}; Tomato, red, ripe, boiled* (without salt) {0.16}; Chilli, red, dry {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.17}; Tilapia, without bones, raw {0.17}; Potato, Diamond, boiled* (without salt) {0.22}; Carrot, boiled* (without salt) {0.22}; Tomato, red, ripe, boiled* (without salt) {0.22}; Chilli, red, dry {0.1}</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -968,7 +968,7 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.65}; UNKNOWN; Hilsha, without bones, raw {0.53}; Pangas, without bones, raw {0.53}; UNKNOWN; Carrot, boiled* (without salt) {0.65}; Brinjal, purple, long, boiled* (without salt) {0.65}</t>
+          <t>Rice, BR-28, boiled* (without salt) {6.0}; Hilsha, without bones, raw {0.53}; Pangas, without bones, raw {0.53}; UNKNOWN; Carrot, boiled* (without salt) {0.97}; Brinjal, purple, long, boiled* (without salt) {0.97}</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.16}; UNKNOWN; Chicken leg, without skin, raw {0.35}; Potato, Diamond, boiled* (without salt) {0.16}; Ginger root, raw {0.1}; Garlic, raw {0.16}; Chilli, green, with seeds, raw {0.16}; Coriander seed, dry {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {0.35}; Potato, Diamond, boiled* (without salt) {0.22}; Ginger root, raw {0.1}; Garlic, raw {0.22}; Chilli, green, with seeds, raw {0.22}; Coriander seed, dry {0.1}</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.11}; UNKNOWN; Hilsha, without bones, raw {0.09}; Pangas, without bones, raw {0.09}; Potato, Diamond, boiled* (without salt) {0.11}; Tomato, red, ripe, boiled* (without salt) {0.11}; Chilli, red, dry {0.1}; UNKNOWN</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.09}; Pangas, without bones, raw {0.09}; Potato, Diamond, boiled* (without salt) {0.16}; Tomato, red, ripe, boiled* (without salt) {0.16}; Chilli, red, dry {0.1}; UNKNOWN</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.16}; UNKNOWN; Beef, meat, lean, boneless, raw {0.53}; Potato, Diamond, boiled* (without salt) {0.16}; Carrot, boiled* (without salt) {0.16}; Ginger root, raw {0.1}; Onion, raw {0.16}; Garlic, raw {0.16}; Chilli, green, with seeds, raw {0.16}; Coriander seed, dry {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Beef, meat, lean, boneless, raw {0.53}; Potato, Diamond, boiled* (without salt) {0.2}; Carrot, boiled* (without salt) {0.2}; Ginger root, raw {0.1}; Onion, raw {0.2}; Garlic, raw {0.2}; Chilli, green, with seeds, raw {0.2}; Coriander seed, dry {0.1}</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {0.5}; Water, drinking {0.5}; UNKNOWN</t>
+          <t>Biscuit, sweet* {1.0}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {0.25}; Water, drinking {0.25}; UNKNOWN</t>
+          <t>Biscuit, sweet* {0.5}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {0.5}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.5}; Carrot, boiled* (without salt) {0.5}; Green gram, split, boiled* (without salt) {0.5}</t>
+          <t>Bread, bun/roll {0.5}; Potato, Diamond, boiled* (without salt) {0.67}; Carrot, boiled* (without salt) {0.67}; Green gram, split, boiled* (without salt) {0.67}</t>
         </is>
       </c>
       <c r="X5" t="inlineStr"/>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {0.67}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.67}; Green gram, split, boiled* (without salt) {0.67}</t>
+          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {1.0}; Green gram, split, boiled* (without salt) {1.0}</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr"/>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {0.5}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.5}; Green gram, split, boiled* (without salt) {0.5}; Gourd, pointed, boiled* (without salt) {0.5}</t>
+          <t>Bread, bun/roll {0.5}; Potato, Diamond, boiled* (without salt) {0.67}; Green gram, split, boiled* (without salt) {0.67}; Gourd, pointed, boiled* (without salt) {0.67}</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.11}; UNKNOWN; Egg, chicken, farmed, boiled* (without salt) {0.17}; Potato, Diamond, boiled* (without salt) {0.11}; Onion, raw {0.11}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {1.5}; Egg, chicken, farmed, boiled* (without salt) {0.17}; Potato, Diamond, boiled* (without salt) {0.16}; Onion, raw {0.16}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.33}; UNKNOWN; Hilsha, without bones, raw {0.7}; Turmeric, dried {0.1}; Soybean oil {0.15}; Potato, Diamond, boiled* (without salt) {0.33}; Cumin seeds {0.1}; Gourd, bitter, boiled* (without salt) {0.33}; Green gram, split, boiled* (without salt) {0.33}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.7}; Turmeric, dried {0.1}; Soybean oil {0.15}; Potato, Diamond, boiled* (without salt) {0.43}; Cumin seeds {0.1}; Gourd, bitter, boiled* (without salt) {0.43}; Green gram, split, boiled* (without salt) {0.43}</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.33}; UNKNOWN; Hilsha, without bones, raw {0.7}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.33}; Colocasia/Taro, boiled* (without salt) {0.33}; Chilli, green, with seeds, raw {0.33}; Coriander seed, dry {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {1.0}; Potato, Diamond, boiled* (without salt) {0.67}; Colocasia/Taro, boiled* (without salt) {0.67}; Chilli, green, with seeds, raw {0.67}; Coriander seed, dry {0.1}</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.2}; UNKNOWN; Beef, meat, lean, boneless, raw {0.53}; Potato, Diamond, boiled* (without salt) {0.2}; Carrot, boiled* (without salt) {0.2}; Chilli, green, with seeds, raw {0.2}; Coriander seed, dry {0.1}; Green gram, split, boiled* (without salt) {0.2}; UNKNOWN</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Beef, meat, lean, boneless, raw {0.53}; Potato, Diamond, boiled* (without salt) {0.24}; Carrot, boiled* (without salt) {0.24}; Chilli, green, with seeds, raw {0.24}; Coriander seed, dry {0.1}; Green gram, split, boiled* (without salt) {0.24}; UNKNOWN</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {1.0}; UNKNOWN; Milk, cow, whole fat (pasteurized, UTH) {1.0}</t>
+          <t>Rice, BR-28, boiled* (without salt) {6.0}; Milk, cow, whole fat (pasteurized, UTH) {2.0}</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr"/>
@@ -1468,7 +1468,7 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.97}; UNKNOWN; Egg, chicken, farmed, boiled* (without salt) {1.05}; Onion, raw {0.97}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {1.05}; Onion, raw {1.95}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.33}; UNKNOWN; Beef, meat, lean, boneless, raw {0.53}; Potato, Diamond, boiled* (without salt) {0.33}; Cumin seeds {0.1}; Chilli, green, with seeds, raw {0.33}; Coriander seed, dry {0.1}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {6.0}; Beef, meat, lean, boneless, raw {0.53}; Potato, Diamond, boiled* (without salt) {0.49}; Cumin seeds {0.1}; Chilli, green, with seeds, raw {0.49}; Coriander seed, dry {0.1}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.33}; UNKNOWN; Hilsha, without bones, raw {0.53}; Potato, Diamond, boiled* (without salt) {0.33}; Chilli, green, with seeds, raw {0.33}; Coriander seed, dry {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {6.0}; Hilsha, without bones, raw {0.53}; Potato, Diamond, boiled* (without salt) {0.49}; Chilli, green, with seeds, raw {0.49}; Coriander seed, dry {0.1}</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.33}; UNKNOWN; Hilsha, without bones, raw {0.17}; Hilsha, without bones, raw {0.17}; Colocasia/Taro, boiled* (without salt) {0.33}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.17}; Hilsha, without bones, raw {0.17}; Colocasia/Taro, boiled* (without salt) {0.65}</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {0.8}; UNKNOWN; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.8}; Papaya, unripe, boiled* (without salt) {0.8}; Green gram, split, boiled* (without salt) {0.8}; Soybean oil {0.15}; Garlic, raw {0.8}</t>
+          <t>Bread, bun/roll {0.5}; Potato, Diamond, boiled* (without salt) {1.0}; Papaya, unripe, boiled* (without salt) {1.0}; Green gram, split, boiled* (without salt) {1.0}; Soybean oil {0.15}; Garlic, raw {1.0}</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; UNKNOWN; Potato, Diamond, boiled* (without salt) {1.0}; Onion, raw {1.0}; Chilli, red, dry {0.1}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {1.0}</t>
+          <t>Bread, bun/roll {0.5}; Potato, Diamond, boiled* (without salt) {1.33}; Onion, raw {1.33}; Chilli, red, dry {0.1}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {1.33}</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -1686,7 +1686,7 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.5}; UNKNOWN; Sugar, white {1.5}</t>
+          <t>Bread, bun/roll {1.0}; Sugar, white {3.0}</t>
         </is>
       </c>
       <c r="X8" t="inlineStr"/>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {0.21}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.21}; Carrot, boiled* (without salt) {0.21}; Cauliflower, boiled* (without salt) {0.21}; Cabbage, boiled* (without salt) {0.21}; Bean, seeds and pods, raw {0.21}; Brinjal, purple, long, boiled* (without salt) {0.21}; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}</t>
+          <t>Bread, bun/roll {0.5}; Potato, Diamond, boiled* (without salt) {0.25}; Carrot, boiled* (without salt) {0.25}; Cauliflower, boiled* (without salt) {0.25}; Cabbage, boiled* (without salt) {0.25}; Bean, seeds and pods, raw {0.25}; Brinjal, purple, long, boiled* (without salt) {0.25}; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr"/>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {0.3}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.3}; Green gram, split, boiled* (without salt) {0.3}; Papaya, unripe, boiled* (without salt) {0.3}; Carrot, boiled* (without salt) {0.3}; Soybean oil {0.15}</t>
+          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {0.38}; Green gram, split, boiled* (without salt) {0.38}; Papaya, unripe, boiled* (without salt) {0.38}; Carrot, boiled* (without salt) {0.38}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr"/>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {0.5}; UNKNOWN; Orange juice, raw (unsweetened) {0.5}; UNKNOWN</t>
+          <t>Biscuit, sweet* {0.75}; Orange juice, raw (unsweetened) {2.5}</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.08}; UNKNOWN; Hilsha, without bones, raw {0.09}; Hilsha, without bones, raw {0.09}; Gourd, pointed, boiled* (without salt) {0.08}; Onion, raw {0.08}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.08}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.09}; Hilsha, without bones, raw {0.09}; Gourd, pointed, boiled* (without salt) {0.11}; Onion, raw {0.11}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.11}</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.33}; UNKNOWN; Chicken leg, without skin, raw {1.05}; UNKNOWN; Green gram, split, boiled* (without salt) {0.33}; Tomato, red, ripe, boiled* (without salt) {0.33}; Cucumber, peeled, raw {0.33}; Onion, raw {0.33}; Radish, boiled* (without salt) {0.33}; Ginger root, raw {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {0.5}; Green gram, split, boiled* (without salt) {0.6}; Tomato, red, ripe, boiled* (without salt) {0.6}; Cucumber, peeled, raw {0.6}; Onion, raw {0.6}; Radish, boiled* (without salt) {0.6}; Ginger root, raw {0.1}</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.16}; UNKNOWN; Hilsha, without bones, raw {0.06}; Hilsha, without bones, raw {0.06}; Chicken leg, without skin, raw {0.06}; UNKNOWN; Green gram, split, boiled* (without salt) {0.16}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.09}; Hilsha, without bones, raw {0.09}; Chicken leg, without skin, raw {1.0}; Green gram, split, boiled* (without salt) {0.33}</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.11}; UNKNOWN; Egg, chicken, farmed, boiled* (without salt) {0.17}; Onion, raw {0.11}; Garlic, raw {0.11}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {6.0}; Egg, chicken, farmed, boiled* (without salt) {0.17}; Onion, raw {0.16}; Garlic, raw {0.16}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.11}; UNKNOWN; Hilsha, without bones, raw {0.09}; Rohu, river, raw {0.09}; Green gram, split, boiled* (without salt) {0.11}; Gourd, bitter, boiled* (without salt) {0.11}</t>
+          <t>Rice, BR-28, boiled* (without salt) {4.5}; Hilsha, without bones, raw {0.09}; Rohu, river, raw {0.09}; Green gram, split, boiled* (without salt) {0.16}; Gourd, bitter, boiled* (without salt) {0.16}</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -2026,7 +2026,7 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {3.0}; UNKNOWN</t>
+          <t>Biscuit, sweet* {0.9}</t>
         </is>
       </c>
       <c r="X10" t="inlineStr"/>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.16}; UNKNOWN; Hilsha, without bones, raw {0.09}; Rohu, river, raw {0.09}; Green gram, split, boiled* (without salt) {0.16}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Hilsha, without bones, raw {0.09}; Rohu, river, raw {0.09}; Green gram, split, boiled* (without salt) {0.33}</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2186,7 +2186,7 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.65}; UNKNOWN; Tomato, red, ripe, boiled* (without salt) {0.65}; Goby, Tank goby, raw {1.05}; UNKNOWN; Green gram, split, boiled* (without salt) {0.65}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Tomato, red, ripe, boiled* (without salt) {1.5}; Goby, Tank goby, raw {0.5}; Green gram, split, boiled* (without salt) {1.5}</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.22}; UNKNOWN; Chicken leg, without skin, raw {0.7}; UNKNOWN; Green gram, split, boiled* (without salt) {0.22}; Tomato, red, ripe, boiled* (without salt) {0.22}; Cucumber, peeled, raw {0.22}; Onion, raw {0.22}; Radish, boiled* (without salt) {0.22}; Ginger root, raw {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {1.5}; Green gram, split, boiled* (without salt) {0.4}; Tomato, red, ripe, boiled* (without salt) {0.4}; Cucumber, peeled, raw {0.4}; Onion, raw {0.4}; Radish, boiled* (without salt) {0.4}; Ginger root, raw {0.1}</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.16}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.16}; Onion, raw {0.16}; Chilli, red, dry {0.1}; Prawn, Giant tiger prawn, raw {0.42}; Onion, raw {0.16}; Garlic, raw {0.16}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Potato, Diamond, boiled* (without salt) {0.2}; Onion, raw {0.2}; Chilli, red, dry {0.1}; Prawn, Giant tiger prawn, raw {0.42}; Onion, raw {0.2}; Garlic, raw {0.2}</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.33}; UNKNOWN; Egg, chicken, farmed, boiled* (without salt) {0.35}; UNKNOWN; Garlic, raw {0.33}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.33}; Gourd, ash, raw {0.33}; Prawn, Giant tiger prawn, raw {0.35}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {1.0}; Garlic, raw {0.43}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.43}; Gourd, ash, raw {0.43}; Prawn, Giant tiger prawn, raw {0.7}</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {0.67}; UNKNOWN; Rice, puffed, salted {0.67}; Onion, raw {0.67}; Soybean oil {0.15}; Chilli, red, dry {0.1}; Lemon, Kagoji, raw {0.1}</t>
+          <t>Biscuit, sweet* {2.0}; Rice, puffed, salted {1.0}; Onion, raw {1.0}; Soybean oil {0.15}; Chilli, red, dry {0.1}; Lemon, Kagoji, raw {0.1}</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
@@ -2544,10 +2544,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.33}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.33}; Onion, raw {0.33}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; Lotus seeds, dried {0.33}; Spinach, boiled* (without salt) {0.33}; Soybean oil {0.15}; Chilli, green, with seeds, raw {0.33}; Coriander seed, dry {0.1}</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>Hilsha, without bones, raw {0.7}; Potato, Diamond, boiled* (without salt) {0.26}; Onion, raw {0.26}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; Lotus seeds, dried {0.26}; Spinach, boiled* (without salt) {0.26}; Soybean oil {0.15}; Chilli, green, with seeds, raw {0.26}; Coriander seed, dry {0.1}</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Hilsha, without bones, raw</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>Lunch</t>
@@ -2575,7 +2579,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.43}; UNKNOWN; Pangas, without bones, raw {0.7}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.43}; Colocasia/Taro, boiled* (without salt) {0.43}; Salt {0.1}; Soybean oil {0.15}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {2.0}; Potato, Diamond, boiled* (without salt) {1.0}; Colocasia/Taro, boiled* (without salt) {1.0}; Salt {0.1}; Soybean oil {0.15}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2610,7 +2614,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.26}; UNKNOWN; Pumpkin leaves, raw {0.26}; Pangas, without bones, raw {0.7}; Mango, Fazli, orange flesh, ripe, raw {0.26}; Soybean oil {0.15}; Onion, raw {0.26}; Chilli, green, with seeds, raw {0.26}; Coriander seed, dry {0.1}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pumpkin leaves, raw {0.33}; Pangas, without bones, raw {0.7}; Mango, Fazli, orange flesh, ripe, raw {0.33}; Soybean oil {0.15}; Onion, raw {0.33}; Chilli, green, with seeds, raw {0.33}; Coriander seed, dry {0.1}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -2641,7 +2645,7 @@
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.97}; UNKNOWN; Pangas, without bones, raw {1.05}; Papaya, unripe, boiled* (without salt) {0.97}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {1.05}; Papaya, unripe, boiled* (without salt) {1.95}</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
@@ -2692,10 +2696,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.33}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.33}; Onion, raw {0.33}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; Lotus seeds, dried {0.33}; Spinach, boiled* (without salt) {0.33}; Soybean oil {0.15}; Chilli, green, with seeds, raw {0.33}; Coriander seed, dry {0.1}</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>Hilsha, without bones, raw {0.7}; Potato, Diamond, boiled* (without salt) {0.26}; Onion, raw {0.26}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; Lotus seeds, dried {0.26}; Spinach, boiled* (without salt) {0.26}; Soybean oil {0.15}; Chilli, green, with seeds, raw {0.26}; Coriander seed, dry {0.1}</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Hilsha, without bones, raw</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>Dinner</t>
@@ -2723,7 +2731,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.43}; UNKNOWN; Pangas, without bones, raw {0.7}; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.43}; Colocasia/Taro, boiled* (without salt) {0.43}; Salt {0.1}; Soybean oil {0.15}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {2.0}; Potato, Diamond, boiled* (without salt) {1.0}; Colocasia/Taro, boiled* (without salt) {1.0}; Salt {0.1}; Soybean oil {0.15}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2785,7 +2793,7 @@
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {1.95}; UNKNOWN; Pangas, without bones, raw {1.05}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {3.0}</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
@@ -2820,14 +2828,10 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Chicken leg, without skin, raw {1.05}; Potato, Diamond, boiled* (without salt) {0.65}; Gourd, pointed, boiled* (without salt) {0.65}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.65}; UNKNOWN</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Chicken leg, without skin, raw</t>
-        </is>
-      </c>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -2930,7 +2934,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {0.33}; UNKNOWN; Pangas, without bones, raw {0.7}; Mango, Fazli, orange flesh, ripe, raw {0.33}; Soybean oil {0.15}; Onion, raw {0.33}; Chilli, green, with seeds, raw {0.33}; Coriander seed, dry {0.1}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.7}; Mango, Fazli, orange flesh, ripe, raw {0.43}; Soybean oil {0.15}; Onion, raw {0.43}; Chilli, green, with seeds, raw {0.43}; Coriander seed, dry {0.1}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">

--- a/Cleaned_Bangladesh_Food_Diary.xlsx
+++ b/Cleaned_Bangladesh_Food_Diary.xlsx
@@ -2822,16 +2822,21 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">doom fry </t>
+          <t xml:space="preserve">doom fry, chicken cury (1 wdiopcs)
+</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>UNKNOWN; Chicken leg, without skin, raw {1.05}; Onion, raw {0.97}; Garlic, raw {0.97}; Ginger root, raw {0.1}; Chilli, red, dry {0.1}</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Chicken leg, without skin, raw</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
